--- a/sorensenLab/relatedToYbx1/design20200601_ybx1InteractionConstructs/primersForSangerSequencing.xlsx
+++ b/sorensenLab/relatedToYbx1/design20200601_ybx1InteractionConstructs/primersForSangerSequencing.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/projectsWorkspace/sorensenLab/relatedToYbx1/design20200601_ybx1InteractionConstructs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d7e3635e365ebdf/Documents/bccrc/projectsWorkspace/sorensenLab/relatedToYbx1/design20200601_ybx1InteractionConstructs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6FFCFF-E2E5-7D4F-9708-776D922C1478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{0C6FFCFF-E2E5-7D4F-9708-776D922C1478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{320F26C6-2C47-451D-A497-B10F9D84D529}"/>
   <bookViews>
-    <workbookView xWindow="21500" yWindow="780" windowWidth="28800" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -308,6 +318,18 @@
   </si>
   <si>
     <t>AAATGGGATCAAGGTGAACTTC</t>
+  </si>
+  <si>
+    <t>tpd52Sanger1</t>
+  </si>
+  <si>
+    <t>tpd52Sanger2</t>
+  </si>
+  <si>
+    <t>tpd52Sanger3</t>
+  </si>
+  <si>
+    <t>tpd52Sanger4</t>
   </si>
 </sst>
 </file>
@@ -668,21 +690,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -710,7 +732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -724,7 +746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -738,7 +760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -752,7 +774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -766,7 +788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -780,7 +802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -794,7 +816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -808,7 +830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -822,7 +844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -836,7 +858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -850,7 +872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -864,7 +886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -878,7 +900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -892,7 +914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -906,7 +928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -920,7 +942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -934,7 +956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -948,7 +970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -962,7 +984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -976,7 +998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -990,7 +1012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1004,7 +1026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1018,7 +1040,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1032,7 +1054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1046,7 +1068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1060,7 +1082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1088,7 +1110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1102,7 +1124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1116,7 +1138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1130,7 +1152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1144,7 +1166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1158,7 +1180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -1172,7 +1194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1186,7 +1208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1200,7 +1222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1214,7 +1236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1228,7 +1250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1242,7 +1264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -1270,7 +1292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -1284,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -1298,7 +1320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1324,6 +1346,38 @@
       </c>
       <c r="D46" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
